--- a/TESTING/legendre_out/DATA/p2/p2FitPoints.xlsx
+++ b/TESTING/legendre_out/DATA/p2/p2FitPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,16 +382,6 @@
           <t>fitOrder</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>splineX</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>splineY</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -408,12 +398,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>3.424536350759639</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0001543501854070334</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -430,12 +414,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>3.42877843536789</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.000238795743724842</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -452,12 +430,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>3.430466699343294</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0002831748969419136</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -474,12 +446,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>3.432206382526072</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.000324997342993213</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -496,12 +462,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>3.433920356105163</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0004040257568383159</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -518,12 +478,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>3.435737168099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0004291856769990608</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -540,12 +494,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>3.436542735681173</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0004366355727711436</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -562,12 +510,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>3.440861949100481</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0004880523500547176</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -584,12 +526,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>3.444324175730245</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0004834853388494185</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -606,12 +542,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>3.445018335029777</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0004475951346732695</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -628,12 +558,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>3.44940610739225</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.000446506962793477</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -650,12 +574,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>3.453639622132605</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0003787402764260084</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -672,12 +590,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>3.45806167396666</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0002953494067293304</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -694,12 +606,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>3.659299311887736</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0001656320242632961</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -716,12 +622,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>3.676516176489705</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002338347127560472</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -738,12 +638,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>3.677433152354519</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0003204903523940402</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -760,12 +654,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>3.679207115008878</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0003853003507315363</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -782,12 +670,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>3.680072671666319</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0004441087076083703</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -804,12 +686,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>3.680886809116387</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0005324730652754139</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -826,12 +702,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>3.681743795905933</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.000587875675016743</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -848,12 +718,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>3.682660771770746</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0009097679008080324</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -870,12 +734,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>3.683397780409756</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.002601380093153347</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -892,12 +750,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>3.684263337067197</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.004133995298624777</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -914,12 +766,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>3.685943031174706</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.006214788941250969</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -936,12 +782,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>3.687699854093274</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.006239167926454405</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -958,12 +798,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>3.689525235955006</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.005796515266086424</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -980,12 +814,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>3.691256349269888</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.005515766911755936</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1002,12 +830,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>3.693013172188456</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.005560152989765409</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1024,12 +846,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>3.693578783469556</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.005632614475445973</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1046,12 +862,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>3.694615737484906</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.005412882738838051</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1068,12 +878,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>3.696278291856625</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.005488024583401653</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1090,12 +894,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>3.698009405171506</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.005439411192430608</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1112,12 +910,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>3.699783367825865</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.005298781544440911</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1134,12 +926,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>3.70147163180127</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.005185732127844874</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1156,12 +942,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>3.703177035512466</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.00481554783543799</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1178,12 +958,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>3.704736751469439</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.004377629559576179</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1200,12 +974,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>3.706647832010125</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.003553739847215576</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1222,12 +990,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>3.708276106910262</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.002838492013628089</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1244,12 +1006,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>3.709964370885666</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.001908872427951935</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1266,12 +1022,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>3.710855637146794</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.002701328749857105</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1288,12 +1038,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>3.711772613011608</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.001356142251666258</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1310,12 +1054,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>3.713529435930176</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0009201064039013616</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1332,12 +1070,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>3.715166280698207</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0007001858313867406</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1354,12 +1086,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>3.719356946099085</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0004208356934135809</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1376,12 +1102,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>3.723504762160485</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0003759236253666554</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1398,12 +1118,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>3.727875394787168</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0003558344786229239</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1420,12 +1134,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>3.745075119653346</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0003874627333920758</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1442,12 +1150,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>3.762300554123211</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.000501151925484219</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1464,12 +1166,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>3.779337451499375</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0006854478513574286</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1486,12 +1182,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>3.788087286620635</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.001001469736216069</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1508,12 +1198,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>3.796605735308717</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001254945805570929</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1530,12 +1214,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>3.805055625053636</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.002368988926652525</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1552,12 +1230,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>3.813539794270136</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.003711042609867537</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1574,12 +1246,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>3.817867577557342</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.008722477565969198</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1596,12 +1262,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>3.82226391978771</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.01299026387672035</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1618,12 +1278,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>3.830696669796837</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.01369916251237817</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1640,12 +1294,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>3.837569703848993</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.010118565084986</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1662,12 +1310,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>3.844554146183789</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004827870729714378</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1684,12 +1326,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>3.846319538970252</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.003561178874215814</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1706,12 +1342,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>3.847930674134597</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.004703840253316092</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1728,12 +1358,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>3.84977319573212</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.001812245517833833</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1750,12 +1374,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>3.852147049139162</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.001218752066028328</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1772,12 +1390,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>3.856414843351097</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0006911992498260949</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1794,12 +1406,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>3.865190388076044</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0005191299429236628</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1816,12 +1422,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>3.866878652051449</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.001194905901825249</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1838,12 +1438,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>3.869363913741131</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.003463159677827617</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1860,12 +1454,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>3.873640277820963</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.006055368661651264</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1882,12 +1470,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>3.878070899522913</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.01100179981835485</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1904,12 +1486,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>3.881644534435317</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.01097951988801868</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1926,12 +1502,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>3.88648650979625</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.01915118475577191</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1948,12 +1518,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>3.890925701366096</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.02127179224185574</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1970,12 +1534,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>3.899118495074151</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.02742728281956358</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1992,12 +1550,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>3.908014017949633</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.04146469523453564</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2014,12 +1566,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>3.916541036505611</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.03823552844471449</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2036,12 +1582,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>3.925025205722112</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.01951869022744989</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2058,12 +1598,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>3.933637922957044</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.01044330812244672</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2080,12 +1614,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>3.942370618342513</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.008477245199649491</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2102,12 +1630,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>3.950700529936895</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.01907896345187428</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2124,12 +1646,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>3.959476074661841</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.02138619074485059</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2146,12 +1662,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>3.967797416388328</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.01558183892290371</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2168,12 +1678,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>3.97227945729765</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.008266932991465038</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2190,12 +1694,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E83" t="n">
-        <v>3.976384424019573</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.004909446757451123</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2212,12 +1710,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>3.984954291915029</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.004042179677438111</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2234,12 +1726,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v>4.002231145592266</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.002103120058269726</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2256,12 +1742,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E86" t="n">
-        <v>4.010826723091408</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.001105097887534377</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2278,12 +1758,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E87" t="n">
-        <v>4.019208053893163</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.000847649615472893</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2300,12 +1774,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>4.036424918495132</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0006814761294536405</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2322,12 +1790,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>4.053547514550251</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0006271804464658728</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2344,12 +1806,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>4.070687250341162</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.0008551596781557688</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2366,12 +1822,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>4.075126441911007</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.001524186180952811</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2388,12 +1838,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>4.078297293032326</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.001749240297362376</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2410,12 +1854,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E93" t="n">
-        <v>4.087861265603653</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.002119044895638327</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2432,12 +1870,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>4.09212905981559</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.003216334300566499</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2454,12 +1886,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E95" t="n">
-        <v>4.096551111649645</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.006829437652038865</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2476,12 +1902,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>4.105069560337727</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.008519426322144037</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2498,12 +1918,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E97" t="n">
-        <v>4.113468030875272</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.007025807044855676</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2520,12 +1934,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>4.122132167317578</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.003364072660091425</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2542,12 +1950,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E99" t="n">
-        <v>4.12395754917931</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.001622894866104033</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2564,12 +1966,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E100" t="n">
-        <v>4.126622778094797</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.001003442447286524</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2586,12 +1982,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E101" t="n">
-        <v>4.13072774481672</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0005478466213518306</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2608,12 +1998,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E102" t="n">
-        <v>4.139151924957952</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0003533970948708886</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2630,12 +2014,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E103" t="n">
-        <v>4.156411638899399</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.0002520230285508099</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2652,12 +2030,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E104" t="n">
-        <v>4.170346244097408</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.0002482186067735211</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2674,12 +2046,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>4.190571132330683</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.000287281621396967</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2696,12 +2062,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E106" t="n">
-        <v>4.199158139961929</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.0005407322815743987</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2718,12 +2078,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E107" t="n">
-        <v>4.207916544951084</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.0007836708409709583</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2740,12 +2094,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E108" t="n">
-        <v>4.216340725092316</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0009838180244920579</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2762,12 +2110,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E109" t="n">
-        <v>4.221645473319603</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.001006054249927612</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2784,12 +2126,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E110" t="n">
-        <v>4.225107699949367</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.001011761642023433</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2806,12 +2142,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>4.230875221043007</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.0009714057264655651</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2828,12 +2158,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E112" t="n">
-        <v>4.23929940118424</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.001012062543784755</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2850,12 +2174,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E113" t="n">
-        <v>4.24231599468344</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.001012813887860451</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2872,12 +2190,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>4.24787783894759</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.001077474427184627</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2894,12 +2206,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E115" t="n">
-        <v>4.252257041442167</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.001135368135197343</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2916,12 +2222,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E116" t="n">
-        <v>4.25472516339606</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.001191475490992635</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2938,12 +2238,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E117" t="n">
-        <v>4.25739896217944</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.001204971407039203</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2960,12 +2254,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E118" t="n">
-        <v>4.259258623512755</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.001259227664042701</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2982,12 +2270,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>4.2616239070519</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.001226081390351127</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3004,12 +2286,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E120" t="n">
-        <v>4.263192192876769</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.001223358374350463</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3026,12 +2302,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E121" t="n">
-        <v>4.271830619715387</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.001015607069385645</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3048,12 +2318,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E122" t="n">
-        <v>4.27642406890735</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0009962979066107857</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3070,12 +2334,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E123" t="n">
-        <v>4.28036620813926</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.0007942109693973676</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3092,12 +2350,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E124" t="n">
-        <v>4.28891036643103</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0006320217131414478</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3114,12 +2366,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E125" t="n">
-        <v>4.293495245755098</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0006754043122874444</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3136,12 +2382,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E126" t="n">
-        <v>4.297651631684394</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0008537189521720491</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3158,12 +2398,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E127" t="n">
-        <v>4.300136893374075</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.001161527330926906</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3180,12 +2414,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E128" t="n">
-        <v>4.300239731788821</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.001124031931930709</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3202,12 +2430,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E129" t="n">
-        <v>4.30191942589633</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.001816205711912394</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3224,12 +2446,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E130" t="n">
-        <v>4.306187220108267</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.003335389289567229</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3246,12 +2462,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E131" t="n">
-        <v>4.308783890080591</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.003674530605169979</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3268,12 +2478,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E132" t="n">
-        <v>4.310729250092858</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.003875433611370022</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3290,12 +2494,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E133" t="n">
-        <v>4.31302597468884</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.004372603645528463</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3312,12 +2510,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E134" t="n">
-        <v>4.315699773472222</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.005022780407717254</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3334,12 +2526,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E135" t="n">
-        <v>4.318107906350845</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.005267532750119685</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3356,12 +2542,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E136" t="n">
-        <v>4.320910253152659</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.005102013263841763</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3378,12 +2558,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E137" t="n">
-        <v>4.323318386031281</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.004661557606180874</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3400,12 +2574,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E138" t="n">
-        <v>4.327757577601127</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.003711469567195941</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3422,12 +2590,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E139" t="n">
-        <v>4.331931103266214</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.002651783134814914</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3444,12 +2606,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E140" t="n">
-        <v>4.340535250633251</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.001787442942377044</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3466,12 +2622,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E141" t="n">
-        <v>4.344845894184665</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.001450621285327016</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3488,12 +2638,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E142" t="n">
-        <v>4.348762323812888</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.001177254575329183</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3510,12 +2654,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E143" t="n">
-        <v>4.357083665539375</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.00100571068628882</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3532,12 +2670,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E144" t="n">
-        <v>4.362054188918739</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.001118146735913172</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3554,12 +2686,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E145" t="n">
-        <v>4.365250749643743</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.004144437735250943</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3576,12 +2702,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E146" t="n">
-        <v>4.367855989483961</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.007880621412171461</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3598,12 +2718,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E147" t="n">
-        <v>4.369681371345694</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.008771582244739833</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3620,12 +2734,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>4.370624056814194</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.009230953696615994</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3642,12 +2750,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E149" t="n">
-        <v>4.371001131001594</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.009042498246742603</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3664,12 +2766,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E150" t="n">
-        <v>4.371241087302666</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.009002575327859891</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3686,12 +2782,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E151" t="n">
-        <v>4.37310074863598</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.01116259094584706</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3708,12 +2798,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E152" t="n">
-        <v>4.37479758247928</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.01166721794038273</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3730,12 +2814,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E153" t="n">
-        <v>4.376545835529954</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.01164060345373525</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3752,12 +2830,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E154" t="n">
-        <v>4.378156970694299</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.0117820735776137</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3774,12 +2846,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E155" t="n">
-        <v>4.379236774049127</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.01189507750841191</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3796,12 +2862,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E156" t="n">
-        <v>4.379845234669704</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.01170796650456163</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3818,12 +2878,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E157" t="n">
-        <v>4.382493323849399</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.01151622917277278</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3840,12 +2894,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E158" t="n">
-        <v>4.386743978325545</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.009644657970404726</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3862,12 +2910,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E159" t="n">
-        <v>4.391003202669586</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.007073491345027294</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3884,12 +2926,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E160" t="n">
-        <v>4.395073889919927</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.005158774977453812</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3906,12 +2942,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E161" t="n">
-        <v>4.396290811161082</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.005404293845391859</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3928,12 +2958,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E162" t="n">
-        <v>4.399607350036622</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.004160647519484137</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3950,12 +2974,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E163" t="n">
-        <v>4.403952273059619</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.004156593222051633</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3972,12 +2990,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E164" t="n">
-        <v>4.406326126466659</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.003995650076409835</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3994,12 +3006,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E165" t="n">
-        <v>4.408974215646356</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.003679924058982145</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4016,12 +3022,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E166" t="n">
-        <v>4.411759422712378</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.003418737825381547</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4038,12 +3038,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E167" t="n">
-        <v>4.41349053602726</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.00328716490955941</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4060,12 +3054,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E168" t="n">
-        <v>4.414321813213119</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.003136189687089214</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4082,12 +3070,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E169" t="n">
-        <v>4.419515153157765</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.002645905663079082</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4104,12 +3086,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E170" t="n">
-        <v>4.421511932377406</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.002368922559949088</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4126,12 +3102,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E171" t="n">
-        <v>4.430664551289752</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.001503843939085976</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4148,12 +3118,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E172" t="n">
-        <v>4.447624319854858</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.001118416088294255</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4170,12 +3134,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E173" t="n">
-        <v>4.464926883135782</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.001218873026505573</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4192,12 +3150,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>4.482066618926692</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.001647749330741222</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4214,12 +3166,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>4.490182283823687</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.002131683078415707</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4236,12 +3182,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E176" t="n">
-        <v>4.493233156794469</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.002337932846965815</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4258,12 +3198,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E177" t="n">
-        <v>4.499292053396556</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.003221829622611773</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4280,12 +3214,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E178" t="n">
-        <v>4.507699093801998</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.004848825901709229</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4302,12 +3230,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E179" t="n">
-        <v>4.512069726428679</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.005736319512505145</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4324,12 +3246,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E180" t="n">
-        <v>4.516303241169035</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.006977914136255221</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4346,12 +3262,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>4.520571035380971</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.009399325126452543</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4368,12 +3278,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E182" t="n">
-        <v>4.520622454588343</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.009338286712798911</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4390,12 +3294,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E183" t="n">
-        <v>4.524727421310266</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.01410400569392715</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4412,12 +3310,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E184" t="n">
-        <v>4.529132333408531</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.01806112160495601</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4434,12 +3326,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E185" t="n">
-        <v>4.533597234582063</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.02351919602558852</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4456,12 +3342,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E186" t="n">
-        <v>4.535979657856999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.02768174013346529</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4478,12 +3358,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E187" t="n">
-        <v>4.540033205371549</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.02694848225191626</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4500,12 +3374,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E188" t="n">
-        <v>4.541790028290118</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.0265434988547142</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4522,12 +3390,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E189" t="n">
-        <v>4.54406961315031</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.02496235988279376</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4544,12 +3406,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E190" t="n">
-        <v>4.54908298586915</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.02164906389240078</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4566,12 +3422,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E191" t="n">
-        <v>4.553067974440538</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.02057431842604483</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4588,12 +3438,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E192" t="n">
-        <v>4.557044393144028</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.01765189159163861</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4610,12 +3454,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E193" t="n">
-        <v>4.561577853260723</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.01403782174246735</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4632,12 +3470,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E194" t="n">
-        <v>4.56575137892581</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.01180257985786008</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4654,12 +3486,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E195" t="n">
-        <v>4.570207710231447</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.008693898167221839</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4676,12 +3502,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E196" t="n">
-        <v>4.570233419835134</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.008995621324019805</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4698,12 +3518,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E197" t="n">
-        <v>4.574141279595461</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.006036213830855515</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4720,12 +3534,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E198" t="n">
-        <v>4.578657599976365</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.003739154694197743</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4742,12 +3550,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E199" t="n">
-        <v>4.578820427466379</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.003739441975407007</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4764,12 +3566,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E200" t="n">
-        <v>4.582256944492457</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.002830226039274667</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4786,12 +3582,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E201" t="n">
-        <v>4.583388167054657</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.002673496080556926</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4808,12 +3598,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E202" t="n">
-        <v>4.583662402827311</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.002519211892288267</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4830,12 +3614,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E203" t="n">
-        <v>4.586636146987034</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.004245723456118216</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4852,12 +3630,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E204" t="n">
-        <v>4.58796447651083</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.00327356731161998</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4874,12 +3646,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E205" t="n">
-        <v>4.591649519705875</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.005153718690803087</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4896,12 +3662,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E206" t="n">
-        <v>4.591709508781143</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.00546556249649717</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4918,12 +3678,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E207" t="n">
-        <v>4.593303504209699</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.004892689430686358</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4940,12 +3694,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E208" t="n">
-        <v>4.595068896996162</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.004728939441988463</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4962,12 +3710,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E209" t="n">
-        <v>4.596757160971567</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.004644929987039385</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4984,12 +3726,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E210" t="n">
-        <v>4.598633962040672</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.004515825462580174</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5006,12 +3742,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E211" t="n">
-        <v>4.600339365751868</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.00431893460068644</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5028,12 +3758,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E212" t="n">
-        <v>4.600536472713462</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.004425052153664168</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5050,12 +3774,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E213" t="n">
-        <v>4.601719114483036</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.004397306401734451</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5072,12 +3790,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E214" t="n">
-        <v>4.603295970175799</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.00471002579787958</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5094,12 +3806,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E215" t="n">
-        <v>4.604949954679621</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.003821448656187891</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5116,12 +3822,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E216" t="n">
-        <v>4.606132596449195</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.002581651198820321</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5138,12 +3838,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>4.610666056565891</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.001126153659351417</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5160,12 +3854,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>4.613091329180303</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.0007262021905048337</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5182,12 +3870,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E219" t="n">
-        <v>4.613451263631914</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.001021449001078962</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5204,12 +3886,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E220" t="n">
-        <v>4.613896896762476</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.0006387853703470838</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5226,12 +3902,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E221" t="n">
-        <v>4.615696569020522</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.000495391341395383</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5248,12 +3918,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E222" t="n">
-        <v>4.619038817499749</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.0004296267141408129</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5270,12 +3934,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E223" t="n">
-        <v>4.621798314962087</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.0004019788909837148</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5292,12 +3950,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E224" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.0003911306900089459</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5314,12 +3966,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E225" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.0004729290580534805</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5336,12 +3982,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E226" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.0004765079393029475</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5358,12 +3998,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E227" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.000530053940026572</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5380,12 +4014,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E228" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.0006126822088473582</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5401,12 +4029,6 @@
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="E229" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.0006149386432805551</v>
       </c>
     </row>
   </sheetData>

--- a/TESTING/legendre_out/DATA/p2/p2FitPoints.xlsx
+++ b/TESTING/legendre_out/DATA/p2/p2FitPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,10 +388,10 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.228279748733995e-05</v>
+        <v>8.113268794593698e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>3.876469153655275e-07</v>
+        <v>2.557230444141357e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>1.900276150155703e-05</v>
+        <v>1.255631762718978e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>5.772910591198055e-07</v>
+        <v>3.941466168350198e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -420,10 +420,10 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.253434230392179e-05</v>
+        <v>1.488798819719439e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.545702995385158e-07</v>
+        <v>4.437730195637492e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>2.586246681455101e-05</v>
+        <v>2.149721238313961e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.567938629087964e-07</v>
+        <v>5.948598376751771e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>3.215134816863106e-05</v>
+        <v>2.286385637455729e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>8.796855824823705e-07</v>
+        <v>6.618932931825402e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.415351099932105e-05</v>
+        <v>2.317333874030765e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>9.728756205849261e-07</v>
+        <v>6.694929422575146e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>3.474635486814424e-05</v>
+        <v>2.642134738725539e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>9.843729879760871e-07</v>
+        <v>6.950634920780321e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>3.883797199941219e-05</v>
+        <v>2.602101500302434e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.013420230925885e-06</v>
+        <v>6.664420235472989e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>3.847454079517247e-05</v>
+        <v>2.371628480881717e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>9.773178191249743e-07</v>
+        <v>6.608296355423959e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>3.561848909356672e-05</v>
+        <v>2.352088281438321e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>9.825504740507221e-07</v>
+        <v>6.585903892335093e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>3.553189512676543e-05</v>
+        <v>2.018631568601688e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>9.802884191081316e-07</v>
+        <v>5.570595952378164e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>3.013919357059504e-05</v>
+        <v>1.53088389176712e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>8.150582495992869e-07</v>
+        <v>4.452429949146363e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>2.350315901011582e-05</v>
+        <v>8.903510383757638e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>6.718465247282221e-07</v>
+        <v>3.166507770211279e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>1.318057769791016e-05</v>
+        <v>1.257194803055668e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.489454386509825e-07</v>
+        <v>4.06059402603759e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>1.860797520079919e-05</v>
+        <v>1.718842755372549e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.882739236541081e-07</v>
+        <v>5.416516277063854e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>2.550381189838748e-05</v>
+        <v>2.008277275412086e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>7.942557591250624e-07</v>
+        <v>6.094914618358822e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.066122769698249e-05</v>
+        <v>2.359507167888329e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>8.957942951098384e-07</v>
+        <v>7.03992283865722e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>3.534104804301268e-05</v>
+        <v>2.855669060265166e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.023818978065743e-06</v>
+        <v>8.100798182396709e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>4.237286020093778e-05</v>
+        <v>3.174475746026563e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.18001743997461e-06</v>
+        <v>9.189091481342365e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>4.678165980119964e-05</v>
+        <v>4.853126916167463e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.328745248403911e-06</v>
+        <v>1.313844181883831e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>7.239702923996774e-05</v>
+        <v>0.0001385392563365003</v>
       </c>
       <c r="C22" t="n">
-        <v>1.93111129661337e-06</v>
+        <v>3.592253293287639e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002070112503431051</v>
+        <v>0.0002172017375684555</v>
       </c>
       <c r="C23" t="n">
-        <v>5.279514823181496e-06</v>
+        <v>5.560938329378597e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003289728932473946</v>
+        <v>0.0003267242326053165</v>
       </c>
       <c r="C24" t="n">
-        <v>8.277077222076851e-06</v>
+        <v>8.231237033102889e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0004945571901364692</v>
+        <v>0.0003315311776284231</v>
       </c>
       <c r="C25" t="n">
-        <v>1.223891548330657e-05</v>
+        <v>8.120205811888306e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004964972081378147</v>
+        <v>0.0003070368430431036</v>
       </c>
       <c r="C26" t="n">
-        <v>1.20269193231682e-05</v>
+        <v>7.670343780992542e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004612720286526437</v>
+        <v>0.0002924368623851435</v>
       </c>
       <c r="C27" t="n">
-        <v>1.143570934622249e-05</v>
+        <v>7.505426102205581e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004389307844743376</v>
+        <v>0.0002936232125012682</v>
       </c>
       <c r="C28" t="n">
-        <v>1.109797482862156e-05</v>
+        <v>7.522188443587795e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004424629163341727</v>
+        <v>0.000298227821964963</v>
       </c>
       <c r="C29" t="n">
-        <v>1.11649703669389e-05</v>
+        <v>7.465839098660281e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004482292181490949</v>
+        <v>0.000287447617467634</v>
       </c>
       <c r="C30" t="n">
-        <v>1.109663966078452e-05</v>
+        <v>7.222299348343078e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004307435221314363</v>
+        <v>0.0002902475973755522</v>
       </c>
       <c r="C31" t="n">
-        <v>1.072526162921347e-05</v>
+        <v>7.321313976229263e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004367231201291063</v>
+        <v>0.0002875153780151965</v>
       </c>
       <c r="C32" t="n">
-        <v>1.08685364469395e-05</v>
+        <v>7.351902158173862e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>0.000432854589392356</v>
+        <v>0.0002815379351541154</v>
       </c>
       <c r="C33" t="n">
-        <v>1.089725027628751e-05</v>
+        <v>7.057457993535474e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004216636375809392</v>
+        <v>0.0002758098166696309</v>
       </c>
       <c r="C34" t="n">
-        <v>1.043673330940344e-05</v>
+        <v>7.116230327939352e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004126674508484821</v>
+        <v>0.0002543289320453458</v>
       </c>
       <c r="C35" t="n">
-        <v>1.043815207274689e-05</v>
+        <v>6.438335614329267e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003832091208527165</v>
+        <v>0.0002311014576631897</v>
       </c>
       <c r="C36" t="n">
-        <v>9.580103081343838e-06</v>
+        <v>5.826401056146153e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0003483606917158728</v>
+        <v>0.0001881065413277511</v>
       </c>
       <c r="C37" t="n">
-        <v>8.686836634855048e-06</v>
+        <v>4.709668221128742e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002827976315734979</v>
+        <v>0.0001507538904569764</v>
       </c>
       <c r="C38" t="n">
-        <v>6.99353993625683e-06</v>
+        <v>3.760565617795579e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>0.000225880017447889</v>
+        <v>0.0001007533066530208</v>
       </c>
       <c r="C39" t="n">
-        <v>5.570752332236579e-06</v>
+        <v>2.5370039273538e-06</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001519032413201891</v>
+        <v>0.0001437785054931939</v>
       </c>
       <c r="C40" t="n">
-        <v>3.786835911716239e-06</v>
+        <v>3.673364624470947e-06</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002149649117280042</v>
+        <v>7.142307116721306e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>5.40872528969999e-06</v>
+        <v>1.862520336095129e-06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>0.000107918371444229</v>
+        <v>4.90911907582069e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2.766686830925497e-06</v>
+        <v>1.299337472379027e-06</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>7.321974117570484e-05</v>
+        <v>3.719163979242035e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.90247463021999e-06</v>
+        <v>9.984579482633211e-07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>5.571901807405406e-05</v>
+        <v>2.281098860483391e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.472296449248469e-06</v>
+        <v>6.662927595243442e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>3.348904041813839e-05</v>
+        <v>2.009910944117843e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>9.545437648355854e-07</v>
+        <v>6.177982581813627e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.991505160106451e-05</v>
+        <v>1.942661468846525e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>9.043209137456739e-07</v>
+        <v>5.863931837926556e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.831640809768285e-05</v>
+        <v>2.134873142683934e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>8.298799753937136e-07</v>
+        <v>6.117562947159795e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>3.083330464162303e-05</v>
+        <v>2.696075041649824e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>8.741134954033114e-07</v>
+        <v>7.382519707909985e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>3.988040309041732e-05</v>
+        <v>3.718886090500032e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.07961200947293e-06</v>
+        <v>9.847910836932516e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>5.454620688762674e-05</v>
+        <v>5.38727348019823e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.438393693874204e-06</v>
+        <v>1.393633358394333e-06</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>7.969442943786195e-05</v>
+        <v>6.767823486783382e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>2.051856361176231e-06</v>
+        <v>1.686011172514885e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>9.986541413452701e-05</v>
+        <v>0.0001271218455632619</v>
       </c>
       <c r="C52" t="n">
-        <v>2.474721359653799e-06</v>
+        <v>3.288516673558152e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001885181489033564</v>
+        <v>0.0001996715335227166</v>
       </c>
       <c r="C53" t="n">
-        <v>4.825487537268085e-06</v>
+        <v>5.006545085914123e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002953153876925333</v>
+        <v>0.0004676636448372147</v>
       </c>
       <c r="C54" t="n">
-        <v>7.356856213785432e-06</v>
+        <v>1.194818789396906e-05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006941127103160807</v>
+        <v>0.0006993921326251547</v>
       </c>
       <c r="C55" t="n">
-        <v>1.756213371951355e-05</v>
+        <v>1.740682342983751e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001033732354024066</v>
+        <v>0.0007376180551618678</v>
       </c>
       <c r="C56" t="n">
-        <v>2.557425073272964e-05</v>
+        <v>1.801233384675751e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001090144715032086</v>
+        <v>0.0005436608153274348</v>
       </c>
       <c r="C57" t="n">
-        <v>2.652403461202237e-05</v>
+        <v>1.360651050198318e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008052098251362931</v>
+        <v>0.0002582132325547984</v>
       </c>
       <c r="C58" t="n">
-        <v>2.001997050248923e-05</v>
+        <v>6.550463018530956e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003841897456213595</v>
+        <v>0.0001901613894313775</v>
       </c>
       <c r="C59" t="n">
-        <v>9.681636545741785e-06</v>
+        <v>4.880913394549753e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002833896105329389</v>
+        <v>0.0002537065531717815</v>
       </c>
       <c r="C60" t="n">
-        <v>7.216080154659615e-06</v>
+        <v>6.34555455798798e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003743197139149446</v>
+        <v>9.784723319493234e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>9.309141782739104e-06</v>
+        <v>2.568396732861742e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.000144213916129693</v>
+        <v>6.541627210901147e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>3.752231475273316e-06</v>
+        <v>1.681627057219709e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>9.69852078559342e-05</v>
+        <v>3.701413748868466e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>2.476182334266629e-06</v>
+        <v>1.020005218294928e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>5.500388863561644e-05</v>
+        <v>2.804340436455082e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.49529931981451e-06</v>
+        <v>7.85476726273211e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.131104826165721e-05</v>
+        <v>6.238147328990049e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.128484373021319e-06</v>
+        <v>1.681617217126348e-06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>9.508759040258371e-05</v>
+        <v>0.0001832719352931785</v>
       </c>
       <c r="C66" t="n">
-        <v>2.508096245051375e-06</v>
+        <v>4.750635583020969e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002755894907214005</v>
+        <v>0.00032238499165387</v>
       </c>
       <c r="C67" t="n">
-        <v>7.041711501842173e-06</v>
+        <v>8.005853936710199e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004818709273727767</v>
+        <v>0.0005859235168474056</v>
       </c>
       <c r="C68" t="n">
-        <v>1.181607744888684e-05</v>
+        <v>1.457699691344295e-05</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008754954119993455</v>
+        <v>0.0005868989744979476</v>
       </c>
       <c r="C69" t="n">
-        <v>2.155881313959195e-05</v>
+        <v>1.39787030335255e-05</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>0.000873722431476973</v>
+        <v>0.001022200504480621</v>
       </c>
       <c r="C70" t="n">
-        <v>2.070044544728435e-05</v>
+        <v>2.464978196397956e-05</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001524002859973626</v>
+        <v>0.001134721938662179</v>
       </c>
       <c r="C71" t="n">
-        <v>3.64429224776068e-05</v>
+        <v>2.826983603421669e-05</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001692755441857586</v>
+        <v>0.001471331078209042</v>
       </c>
       <c r="C72" t="n">
-        <v>4.170629432741494e-05</v>
+        <v>3.286615423170997e-05</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00218259381815648</v>
+        <v>0.002230034727262287</v>
       </c>
       <c r="C73" t="n">
-        <v>4.871280118734354e-05</v>
+        <v>5.121819967557001e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003299655605187652</v>
+        <v>0.002058648418763841</v>
       </c>
       <c r="C74" t="n">
-        <v>7.561999105961753e-05</v>
+        <v>4.778310301156161e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00304268667685354</v>
+        <v>0.001047782911722176</v>
       </c>
       <c r="C75" t="n">
-        <v>7.033100251447356e-05</v>
+        <v>2.585302723973293e-05</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00155324801618906</v>
+        <v>0.0005624094306173774</v>
       </c>
       <c r="C76" t="n">
-        <v>3.81173995561981e-05</v>
+        <v>1.379001819556206e-05</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008310520549595677</v>
+        <v>0.0004521324627078339</v>
       </c>
       <c r="C77" t="n">
-        <v>2.019342571819021e-05</v>
+        <v>1.129227565254528e-05</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006745977386631288</v>
+        <v>0.001016899017008687</v>
       </c>
       <c r="C78" t="n">
-        <v>1.666944413297153e-05</v>
+        <v>2.412650397858534e-05</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001518255671217701</v>
+        <v>0.001140687492383807</v>
       </c>
       <c r="C79" t="n">
-        <v>3.579913867982105e-05</v>
+        <v>2.78693451757911e-05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001701858985474557</v>
+        <v>0.0008266202971454033</v>
       </c>
       <c r="C80" t="n">
-        <v>4.127070261180587e-05</v>
+        <v>1.97146962718741e-05</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>0.00123996334352091</v>
+        <v>0.0004393823180324891</v>
       </c>
       <c r="C81" t="n">
-        <v>2.940168878300789e-05</v>
+        <v>1.097098104393626e-05</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006578616249005651</v>
+        <v>0.000259675847708712</v>
       </c>
       <c r="C82" t="n">
-        <v>1.626243145989144e-05</v>
+        <v>6.643937525526997e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003906813596474118</v>
+        <v>0.0002163196531739345</v>
       </c>
       <c r="C83" t="n">
-        <v>9.871443590630017e-06</v>
+        <v>5.583659205804975e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003216664382649392</v>
+        <v>0.0001134891134144898</v>
       </c>
       <c r="C84" t="n">
-        <v>8.199768115393365e-06</v>
+        <v>2.995739793938198e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>0.000167360976594671</v>
+        <v>5.967238544210427e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>4.368697081585019e-06</v>
+        <v>1.695976422283584e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>8.794089570075378e-05</v>
+        <v>4.542291754971085e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>2.45865531609268e-06</v>
+        <v>1.292291519104755e-06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>6.745381315622763e-05</v>
+        <v>3.646682054734993e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.882575475783067e-06</v>
+        <v>9.790296885042794e-07</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>5.423014730083963e-05</v>
+        <v>3.374308830791889e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.428761485870614e-06</v>
+        <v>9.834808259294685e-07</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.990943413281275e-05</v>
+        <v>4.578264435611982e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.431603541619453e-06</v>
+        <v>1.342401386866001e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>6.805144495568246e-05</v>
+        <v>8.258918217296961e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.941738627717949e-06</v>
+        <v>2.392004807783405e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000121290882445499</v>
+        <v>9.31073538882677e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>3.462179658197565e-06</v>
+        <v>2.624241214212975e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001392001199903795</v>
+        <v>0.0001134628303897611</v>
       </c>
       <c r="C92" t="n">
-        <v>3.858410901288813e-06</v>
+        <v>3.107192959660507e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001686282348872446</v>
+        <v>0.0001721244182282583</v>
       </c>
       <c r="C93" t="n">
-        <v>4.57050247764105e-06</v>
+        <v>4.510016055079844e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002559477512855861</v>
+        <v>0.0003605671229224687</v>
       </c>
       <c r="C94" t="n">
-        <v>6.621379553836593e-06</v>
+        <v>9.274771666164085e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005434693804299464</v>
+        <v>0.0004547168192098397</v>
       </c>
       <c r="C95" t="n">
-        <v>1.379712294438967e-05</v>
+        <v>1.109931545938608e-05</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006779544057382148</v>
+        <v>0.0003766486701619357</v>
       </c>
       <c r="C96" t="n">
-        <v>1.636470031964993e-05</v>
+        <v>9.170928849166195e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005590959601993212</v>
+        <v>0.0001809709834906233</v>
       </c>
       <c r="C97" t="n">
-        <v>1.346783016561027e-05</v>
+        <v>4.883613531999857e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002677043963869258</v>
+        <v>8.65702136208824e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>7.090108763280468e-06</v>
+        <v>2.515880366036001e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001291458700294583</v>
+        <v>5.373210302611565e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3.647841215661117e-06</v>
+        <v>1.594643337907183e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>7.985141279693942e-05</v>
+        <v>2.952423795346807e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.310759537326304e-06</v>
+        <v>9.256554581597477e-07</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>4.359624892216887e-05</v>
+        <v>1.93027159083966e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.325017990487822e-06</v>
+        <v>5.971067287116709e-07</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>2.812244726150871e-05</v>
+        <v>1.317196879832352e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>8.441515595810187e-07</v>
+        <v>4.64878216080537e-07</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>2.005535538342563e-05</v>
+        <v>1.272617643565598e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>6.830593267790612e-07</v>
+        <v>4.935250010320531e-07</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>1.975260911769465e-05</v>
+        <v>1.550273045835626e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>7.106705648436277e-07</v>
+        <v>4.858261777529835e-07</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>2.286114505239086e-05</v>
+        <v>2.901809408480575e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>7.011097551266667e-07</v>
+        <v>9.37512179679572e-07</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>4.303010775096208e-05</v>
+        <v>4.155044961077943e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.356296383937414e-06</v>
+        <v>1.162247696556665e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>6.236254404875532e-05</v>
+        <v>5.309462698797256e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.71334467498856e-06</v>
+        <v>1.498882524345083e-06</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>7.828975085040718e-05</v>
+        <v>5.40466469083233e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>2.188873963051515e-06</v>
+        <v>1.371986482688066e-06</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>8.005925344729428e-05</v>
+        <v>5.47251312330563e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>2.007198513529048e-06</v>
+        <v>1.511443846625376e-06</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>8.051343327940105e-05</v>
+        <v>5.242434920457305e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>2.178698562820707e-06</v>
+        <v>1.33844540259382e-06</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>7.730201155738413e-05</v>
+        <v>5.420538810289613e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.951689723933494e-06</v>
+        <v>1.394515357364506e-06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>8.053737828075074e-05</v>
+        <v>5.484264083253762e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.040405434542258e-06</v>
+        <v>1.509048478153629e-06</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>8.059716834255569e-05</v>
+        <v>5.80642906835599e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>2.192396126423697e-06</v>
+        <v>1.487697190793486e-06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>8.574269057077089e-05</v>
+        <v>6.061715327858496e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>2.167780681882548e-06</v>
+        <v>1.530944978679094e-06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>9.03497254728422e-05</v>
+        <v>6.494491923059329e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>2.257625171830667e-06</v>
+        <v>1.650757068658758e-06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>9.481460698216047e-05</v>
+        <v>6.554929558358417e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.389495770535737e-06</v>
+        <v>1.676670065365667e-06</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>9.588857785734268e-05</v>
+        <v>6.690475785273653e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2.431428625228708e-06</v>
+        <v>1.798612415545321e-06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001002061536052282</v>
+        <v>6.555374177266117e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>2.667243805163513e-06</v>
+        <v>1.605037638285001e-06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>9.756845695368279e-05</v>
+        <v>6.52453816116822e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>2.357286468594046e-06</v>
+        <v>1.675042084427731e-06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>9.735176622537079e-05</v>
+        <v>5.429408313533508e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>2.461780388067795e-06</v>
+        <v>1.400812293080256e-06</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>8.081944266589945e-05</v>
+        <v>5.304155267864307e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>2.055038788388675e-06</v>
+        <v>1.486367819390085e-06</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>7.928286831460703e-05</v>
+        <v>4.267330334823559e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>2.168992275713557e-06</v>
+        <v>1.131153336944135e-06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>6.320130081869853e-05</v>
+        <v>3.410170449493718e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1.649608839246381e-06</v>
+        <v>9.067567440549036e-07</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>5.029468989393466e-05</v>
+        <v>3.615465248128747e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.318003161528578e-06</v>
+        <v>1.108250815058388e-06</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>5.374696744306446e-05</v>
+        <v>4.576642328192917e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.607673211916047e-06</v>
+        <v>1.232442697413956e-06</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>6.79367956247075e-05</v>
+        <v>6.232206198584971e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.794722373479732e-06</v>
+        <v>1.602885569635111e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>9.243140812667637e-05</v>
+        <v>6.031488348511882e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>2.351773014408291e-06</v>
+        <v>1.554198396858351e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>8.944761907995254e-05</v>
+        <v>9.701395171569707e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>2.272033574448496e-06</v>
+        <v>2.460382306298626e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001445290583612962</v>
+        <v>0.0001790724762100528</v>
       </c>
       <c r="C129" t="n">
-        <v>3.624359814654333e-06</v>
+        <v>4.561219110830096e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002654218462851948</v>
+        <v>0.0001959134677370861</v>
       </c>
       <c r="C130" t="n">
-        <v>6.684380396833459e-06</v>
+        <v>5.089077628326244e-06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002924098546776279</v>
+        <v>0.0002059973343063441</v>
       </c>
       <c r="C131" t="n">
-        <v>7.470822180918434e-06</v>
+        <v>5.490216915343684e-06</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003083972079370072</v>
+        <v>0.0002357433705071552</v>
       </c>
       <c r="C132" t="n">
-        <v>8.062823231832421e-06</v>
+        <v>5.899847418375968e-06</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003479607421837483</v>
+        <v>0.0002681366793096546</v>
       </c>
       <c r="C133" t="n">
-        <v>8.57928586185629e-06</v>
+        <v>6.571513919814568e-06</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003997001649766632</v>
+        <v>0.0002823949404465356</v>
       </c>
       <c r="C134" t="n">
-        <v>9.681114521542251e-06</v>
+        <v>6.889401869241958e-06</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004191769375399968</v>
+        <v>0.0002729044165321484</v>
       </c>
       <c r="C135" t="n">
-        <v>1.012185508038212e-05</v>
+        <v>6.862076957705078e-06</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004060053153304156</v>
+        <v>0.000248191843915478</v>
       </c>
       <c r="C136" t="n">
-        <v>1.006262932100019e-05</v>
+        <v>6.188101343175086e-06</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003709549677656545</v>
+        <v>0.0001986155288190323</v>
       </c>
       <c r="C137" t="n">
-        <v>9.139074651818212e-06</v>
+        <v>5.155137317545351e-06</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002953493638771857</v>
+        <v>0.0001397712277168646</v>
       </c>
       <c r="C138" t="n">
-        <v>7.529580195810379e-06</v>
+        <v>3.608055843395911e-06</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002110221969567578</v>
+        <v>9.598496097773475e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>5.360549500178153e-06</v>
+        <v>2.611594312299574e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001422401898870142</v>
+        <v>7.799520302221238e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>3.790545909049786e-06</v>
+        <v>2.31653786036153e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001154367740570567</v>
+        <v>6.357353435406461e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>3.341716402416133e-06</v>
+        <v>1.771857675821897e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>9.36829424705948e-05</v>
+        <v>5.344779186371237e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>2.550939341154419e-06</v>
+        <v>1.616992220435233e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>8.003191352160411e-05</v>
+        <v>5.964991071525563e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>2.362446369406658e-06</v>
+        <v>1.819834217473156e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>8.897929006132467e-05</v>
+        <v>0.0002225641007911923</v>
       </c>
       <c r="C144" t="n">
-        <v>2.649263371786433e-06</v>
+        <v>5.863931262524989e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003298038759508838</v>
+        <v>0.0004213239301090198</v>
       </c>
       <c r="C145" t="n">
-        <v>8.568798445504539e-06</v>
+        <v>9.756826572800204e-06</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006271199261914604</v>
+        <v>0.0004679420490699201</v>
       </c>
       <c r="C146" t="n">
-        <v>1.446380574266978e-05</v>
+        <v>1.109697884371533e-05</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0006980203364937239</v>
+        <v>0.0004920633945198861</v>
       </c>
       <c r="C147" t="n">
-        <v>1.645316492267772e-05</v>
+        <v>1.186046676339387e-05</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007345759551344197</v>
+        <v>0.0004812295019451203</v>
       </c>
       <c r="C148" t="n">
-        <v>1.756596199636725e-05</v>
+        <v>1.157811118723136e-05</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007195791469344412</v>
+        <v>0.0004814533068235167</v>
       </c>
       <c r="C149" t="n">
-        <v>1.721012307219632e-05</v>
+        <v>1.158175136576416e-05</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000716402181993021</v>
+        <v>0.0005958336363486988</v>
       </c>
       <c r="C150" t="n">
-        <v>1.711835928648471e-05</v>
+        <v>1.416711845408635e-05</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008882907633721978</v>
+        <v>0.0006212640943447996</v>
       </c>
       <c r="C151" t="n">
-        <v>2.092596176220999e-05</v>
+        <v>1.460173260215803e-05</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009284477036711772</v>
+        <v>0.0006218709723196476</v>
       </c>
       <c r="C152" t="n">
-        <v>2.171264707920707e-05</v>
+        <v>1.472906713069685e-05</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009263297901172772</v>
+        <v>0.0006268895006585215</v>
       </c>
       <c r="C153" t="n">
-        <v>2.175894032362487e-05</v>
+        <v>1.4635373405462e-05</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009375876248748159</v>
+        <v>0.0006374594663919428</v>
       </c>
       <c r="C154" t="n">
-        <v>2.178581879642473e-05</v>
+        <v>1.505674943811791e-05</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009465801919624906</v>
+        <v>0.0006286156524217504</v>
       </c>
       <c r="C155" t="n">
-        <v>2.215057284372313e-05</v>
+        <v>1.479524752145032e-05</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009316903713776619</v>
+        <v>0.000617223708246716</v>
       </c>
       <c r="C156" t="n">
-        <v>2.183068048881394e-05</v>
+        <v>1.439749579822433e-05</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009164323993129383</v>
+        <v>0.0005147397089845236</v>
       </c>
       <c r="C157" t="n">
-        <v>2.125779387854971e-05</v>
+        <v>1.188471062112914e-05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007674974952102795</v>
+        <v>0.0003791896666909078</v>
       </c>
       <c r="C158" t="n">
-        <v>1.762449160365651e-05</v>
+        <v>9.234578157900583e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005628905562394166</v>
+        <v>0.0002767524166901385</v>
       </c>
       <c r="C159" t="n">
-        <v>1.357184265200273e-05</v>
+        <v>6.612196238292125e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004105222689802775</v>
+        <v>0.0002883086033306753</v>
       </c>
       <c r="C160" t="n">
-        <v>9.72957513041909e-06</v>
+        <v>7.155538478050902e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004300600397076108</v>
+        <v>0.0002221198303384071</v>
       </c>
       <c r="C161" t="n">
-        <v>1.052953056634355e-05</v>
+        <v>5.393509183582107e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003310938095944667</v>
+        <v>0.0002220386951991223</v>
       </c>
       <c r="C162" t="n">
-        <v>7.929102554971009e-06</v>
+        <v>5.445009259159107e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003307711788558928</v>
+        <v>0.0002139780056771204</v>
       </c>
       <c r="C163" t="n">
-        <v>8.018233277133802e-06</v>
+        <v>5.18759706433012e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003179637302630673</v>
+        <v>0.000197328803071349</v>
       </c>
       <c r="C164" t="n">
-        <v>7.639906300358804e-06</v>
+        <v>4.85391671486998e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002928390520948999</v>
+        <v>0.000183419839739366</v>
       </c>
       <c r="C165" t="n">
-        <v>7.104534065362798e-06</v>
+        <v>4.625884632231671e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002720545120223551</v>
+        <v>0.0001747737959840143</v>
       </c>
       <c r="C166" t="n">
-        <v>6.784853772499107e-06</v>
+        <v>4.632145733250127e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002615842720573016</v>
+        <v>0.0001675593141011447</v>
       </c>
       <c r="C167" t="n">
-        <v>6.790265714936231e-06</v>
+        <v>4.134578749264506e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002495700455870365</v>
+        <v>0.000140476862647785</v>
       </c>
       <c r="C168" t="n">
-        <v>6.08351866181693e-06</v>
+        <v>3.524711142994441e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002105544826169374</v>
+        <v>0.0001269106507144066</v>
       </c>
       <c r="C169" t="n">
-        <v>5.213508421969516e-06</v>
+        <v>3.131136252425954e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.000188512867608902</v>
+        <v>8.071646996762628e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>4.595286856602219e-06</v>
+        <v>2.337428615543087e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001196720982721602</v>
+        <v>5.983802948090401e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>3.39646236395537e-06</v>
+        <v>1.641387973503063e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>8.900072444276621e-05</v>
+        <v>6.600497163521159e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.394892047960206e-06</v>
+        <v>1.879332338361524e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>9.699483358487033e-05</v>
+        <v>8.821880339716936e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.701470612925384e-06</v>
+        <v>2.74233064160577e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001311237254819139</v>
+        <v>0.0001137205254380706</v>
       </c>
       <c r="C174" t="n">
-        <v>3.995919604930465e-06</v>
+        <v>3.051064053867918e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001696339495176041</v>
+        <v>0.0001261335720527543</v>
       </c>
       <c r="C175" t="n">
-        <v>4.507151281720312e-06</v>
+        <v>3.859335973433331e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001860467846057586</v>
+        <v>0.0001728089850224592</v>
       </c>
       <c r="C176" t="n">
-        <v>5.631165778379605e-06</v>
+        <v>5.589173989452801e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002563850551192797</v>
+        <v>0.0002587386491283566</v>
       </c>
       <c r="C177" t="n">
-        <v>8.112533250427723e-06</v>
+        <v>7.507050145142183e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003858573052245202</v>
+        <v>0.0003073466811827899</v>
       </c>
       <c r="C178" t="n">
-        <v>1.101371155079649e-05</v>
+        <v>9.25081830731581e-06</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004564818027848426</v>
+        <v>0.0003755769911170359</v>
       </c>
       <c r="C179" t="n">
-        <v>1.351906193911221e-05</v>
+        <v>1.065913958788587e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005552847636279159</v>
+        <v>0.0005019030911133385</v>
       </c>
       <c r="C180" t="n">
-        <v>1.55792074841962e-05</v>
+        <v>1.33918705934569e-05</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007479745278013882</v>
+        <v>0.0004989993897634522</v>
       </c>
       <c r="C181" t="n">
-        <v>1.974372981302225e-05</v>
+        <v>1.217792319013086e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007431172451756565</v>
+        <v>0.0007526894261568073</v>
       </c>
       <c r="C182" t="n">
-        <v>1.793937324190968e-05</v>
+        <v>1.960138373043308e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001122361111792372</v>
+        <v>0.0009633180133935657</v>
       </c>
       <c r="C183" t="n">
-        <v>2.882158987588294e-05</v>
+        <v>2.480986514359911e-05</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001437258390606288</v>
+        <v>0.001262488129173153</v>
       </c>
       <c r="C184" t="n">
-        <v>3.662760079851154e-05</v>
+        <v>2.955077543494556e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001871598152509836</v>
+        <v>0.001478420066147818</v>
       </c>
       <c r="C185" t="n">
-        <v>4.355072338642579e-05</v>
+        <v>3.416203433747902e-05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002202842887813152</v>
+        <v>0.001438395614859874</v>
       </c>
       <c r="C186" t="n">
-        <v>5.059529397805028e-05</v>
+        <v>3.208302817937662e-05</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002144492079608343</v>
+        <v>0.001416300026610696</v>
       </c>
       <c r="C187" t="n">
-        <v>4.785722845454375e-05</v>
+        <v>3.209178438623055e-05</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002112264524840914</v>
+        <v>0.001331046342980817</v>
       </c>
       <c r="C188" t="n">
-        <v>4.776414203332619e-05</v>
+        <v>3.045112599133121e-05</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001986441483292726</v>
+        <v>0.001156262864688409</v>
       </c>
       <c r="C189" t="n">
-        <v>4.53644875685701e-05</v>
+        <v>2.552189482431198e-05</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001722777765893926</v>
+        <v>0.001098426443494892</v>
       </c>
       <c r="C190" t="n">
-        <v>3.805582651451633e-05</v>
+        <v>2.447649602654942e-05</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.00163725223912585</v>
+        <v>0.0009416419643730322</v>
       </c>
       <c r="C191" t="n">
-        <v>3.645850847835963e-05</v>
+        <v>2.104791911529774e-05</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001404692900865775</v>
+        <v>0.0007494748804475219</v>
       </c>
       <c r="C192" t="n">
-        <v>3.139235144415712e-05</v>
+        <v>1.686681946981717e-05</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001117094360278281</v>
+        <v>0.0006324374409487314</v>
       </c>
       <c r="C193" t="n">
-        <v>2.507553816448124e-05</v>
+        <v>1.446154510996787e-05</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0009392194628076357</v>
+        <v>0.0004651002747750747</v>
       </c>
       <c r="C194" t="n">
-        <v>2.13530328955151e-05</v>
+        <v>1.109826244420523e-05</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0006918384340254626</v>
+        <v>0.0004799837591596374</v>
       </c>
       <c r="C195" t="n">
-        <v>1.630511996103328e-05</v>
+        <v>1.103410625682048e-05</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007158487999503061</v>
+        <v>0.000323596511585794</v>
       </c>
       <c r="C196" t="n">
-        <v>1.638266824028309e-05</v>
+        <v>7.625879251775777e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004803466343701605</v>
+        <v>0.0001995063779418909</v>
       </c>
       <c r="C197" t="n">
-        <v>1.122256961688968e-05</v>
+        <v>5.08263341418064e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002975524762834176</v>
+        <v>0.0002016900827205353</v>
       </c>
       <c r="C198" t="n">
-        <v>7.4483312617081e-06</v>
+        <v>4.965359194030042e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002975753373956735</v>
+        <v>0.000152128640339068</v>
       </c>
       <c r="C199" t="n">
-        <v>7.223690591527901e-06</v>
+        <v>3.923327510089129e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.00022522223210898</v>
+        <v>0.0001443806652850121</v>
       </c>
       <c r="C200" t="n">
-        <v>5.705986444414887e-06</v>
+        <v>3.615308381154529e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002127500582787214</v>
+        <v>0.0001353433368086314</v>
       </c>
       <c r="C201" t="n">
-        <v>5.240188296879685e-06</v>
+        <v>3.40486030946515e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002004725126767825</v>
+        <v>0.0002271618673591836</v>
       </c>
       <c r="C202" t="n">
-        <v>4.961243807481604e-06</v>
+        <v>5.786552361368406e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003378639375212099</v>
+        <v>0.0001759104720207768</v>
       </c>
       <c r="C203" t="n">
-        <v>8.479881380065978e-06</v>
+        <v>4.120987387064062e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002605022095941833</v>
+        <v>0.0002766682990923271</v>
       </c>
       <c r="C204" t="n">
-        <v>6.068441838916456e-06</v>
+        <v>6.967085187918751e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004101199024732014</v>
+        <v>0.0002628376208242592</v>
       </c>
       <c r="C205" t="n">
-        <v>1.018704215960465e-05</v>
+        <v>6.619302795325116e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004349356440476023</v>
+        <v>0.0002523913228537872</v>
       </c>
       <c r="C206" t="n">
-        <v>1.001075067790772e-05</v>
+        <v>6.436796949769317e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003893478539536026</v>
+        <v>0.0002499664822982917</v>
       </c>
       <c r="C207" t="n">
-        <v>9.671217687678792e-06</v>
+        <v>6.347940908233775e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003763170438873466</v>
+        <v>0.0002434515212549926</v>
       </c>
       <c r="C208" t="n">
-        <v>9.434129937560121e-06</v>
+        <v>6.252251736096539e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003696317838765457</v>
+        <v>0.0002309700224348668</v>
       </c>
       <c r="C209" t="n">
-        <v>9.247696362534838e-06</v>
+        <v>5.5137817293881e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003593579722549398</v>
+        <v>0.0002342281548205718</v>
       </c>
       <c r="C210" t="n">
-        <v>9.126026195937238e-06</v>
+        <v>5.905212740884756e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.000343689895294934</v>
+        <v>0.0001380192483883197</v>
       </c>
       <c r="C211" t="n">
-        <v>8.127651575091987e-06</v>
+        <v>3.359864740650542e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003521344618475448</v>
+        <v>6.049833045594503e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>8.23164704441179e-06</v>
+        <v>1.77828878752633e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003499265250628368</v>
+        <v>3.908058341291929e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>8.685723571028181e-06</v>
+        <v>1.288567032569191e-06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003748119439114418</v>
+        <v>5.452532710797551e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.712408393098862e-06</v>
+        <v>1.511979760704522e-06</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003041012217020919</v>
+        <v>3.415019850698269e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.99127795594672e-06</v>
+        <v>1.082075747047993e-06</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002054412748156858</v>
+        <v>2.663972797194945e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>4.937302744467754e-06</v>
+        <v>9.207805942691743e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>8.961646078340224e-05</v>
+        <v>2.327815611840813e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>2.57137431639651e-06</v>
+        <v>8.11300161171087e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>5.778933415150327e-05</v>
+        <v>2.147164096995571e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.834941646528474e-06</v>
+        <v>7.979713419754361e-07</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>8.128432881899775e-05</v>
+        <v>2.08598680768509e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>2.196424320818958e-06</v>
+        <v>7.864597343684813e-07</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>5.083292463276271e-05</v>
+        <v>2.574043296857423e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1.560336159748515e-06</v>
+        <v>9.20685332665641e-07</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.942199037399993e-05</v>
+        <v>2.559400661006807e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.316433757518568e-06</v>
+        <v>9.388251464084269e-07</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>3.418860761991953e-05</v>
+        <v>2.884235041808614e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>1.145815421824849e-06</v>
+        <v>8.962595007224503e-07</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3921,111 +3921,15 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>3.198846375932816e-05</v>
+        <v>3.3164831435499e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>1.135528694011622e-06</v>
+        <v>1.040185270062815e-06</v>
       </c>
       <c r="D223" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.112519135493377e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1.123989665768626e-06</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.763449866050267e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.297839969319137e-06</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.791929698129847e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.336799885374983e-06</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.218035233028199e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.263879787137819e-06</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.875570104125901e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.478405022939629e-06</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.893526238816205e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.655708555794322e-06</v>
-      </c>
-      <c r="D229" t="inlineStr">
         <is>
           <t>4</t>
         </is>
